--- a/qualitative codes/sample_gh_mc.xlsx
+++ b/qualitative codes/sample_gh_mc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyug1/ethical_documents/qualitative_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyug1/Ethical-Document/qualitative codes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB8E9FF-1DFA-8F49-972F-472722F1C66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25CF0FF-A185-3242-8429-0DE0F54F3F9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26740" yWindow="22360" windowWidth="30240" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Keypoints +codes" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="131">
   <si>
     <t>repo_name</t>
   </si>
@@ -157,6 +157,9 @@
     <t>keypoints</t>
   </si>
   <si>
+    <t>Code</t>
+  </si>
+  <si>
     <t>biased</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
   </si>
   <si>
     <t>C8, C19, C33, C70, C124, C125</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>1. This model focus on using carton images for the task, to avoid ethical issues related to real-word usage of image generation such as deep fakes.</t>
@@ -358,6 +364,9 @@
     <t>C5, C22, C83</t>
   </si>
   <si>
+    <t>actionable</t>
+  </si>
+  <si>
     <t>1. The training dataset is filtered to remove people, violent objects and hate symbols.
 2. The model is not intended for commercial usage.
 3. The model can generate bias output, and make a few examples. The model can produce unrealistic contents, and biased towards western-centric concepts.</t>
@@ -468,9 +477,6 @@
   </si>
   <si>
     <t>C7, C70</t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -754,7 +760,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -772,16 +778,16 @@
         <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -809,15 +815,17 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -843,10 +851,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -877,10 +885,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -911,10 +919,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -945,10 +953,10 @@
         <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -979,10 +987,10 @@
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1013,10 +1021,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -1047,17 +1055,19 @@
         <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1083,7 +1093,7 @@
         <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -1115,13 +1125,13 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1151,15 +1161,17 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1185,10 +1197,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1219,21 +1231,23 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1259,16 +1273,16 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1297,7 +1311,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1329,10 +1343,10 @@
         <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1363,10 +1377,10 @@
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1397,10 +1411,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1431,10 +1445,10 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1465,13 +1479,13 @@
         <v>24</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1501,10 +1515,10 @@
         <v>9</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1535,13 +1549,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1571,13 +1585,13 @@
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1607,15 +1621,17 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1641,13 +1657,13 @@
         <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1677,13 +1693,13 @@
         <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1713,10 +1729,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1747,10 +1763,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1781,10 +1797,10 @@
         <v>18</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1815,10 +1831,10 @@
         <v>43</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1849,10 +1865,10 @@
         <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1883,13 +1899,13 @@
         <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1919,10 +1935,10 @@
         <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1953,13 +1969,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1989,19 +2005,21 @@
         <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="G36" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -2027,13 +2045,13 @@
         <v>38</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2063,10 +2081,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -2097,10 +2115,10 @@
         <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -2131,10 +2149,10 @@
         <v>14</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2165,10 +2183,10 @@
         <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2199,17 +2217,19 @@
         <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -2235,13 +2255,13 @@
         <v>20</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2271,10 +2291,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2496,7 +2516,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2524,7 +2544,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2552,7 +2572,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2580,7 +2600,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2608,7 +2628,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2636,7 +2656,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2664,7 +2684,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2692,7 +2712,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2720,7 +2740,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2748,7 +2768,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2776,7 +2796,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2804,7 +2824,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2832,7 +2852,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2860,7 +2880,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2888,7 +2908,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2916,7 +2936,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2944,7 +2964,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2972,7 +2992,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3000,7 +3020,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3028,7 +3048,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3056,7 +3076,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3084,7 +3104,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3112,7 +3132,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3140,7 +3160,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3168,7 +3188,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3196,7 +3216,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3224,7 +3244,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3252,7 +3272,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3280,7 +3300,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3308,7 +3328,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3336,7 +3356,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3364,7 +3384,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3392,7 +3412,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3420,7 +3440,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3448,7 +3468,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:26" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
